--- a/metadata/cedar-maldi/todo/Vanderbilt TMC (MALDI).xlsx
+++ b/metadata/cedar-maldi/todo/Vanderbilt TMC (MALDI).xlsx
@@ -4,17 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="_validation_data" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Non-Standard Value" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Missing Required Value" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Non-Standard Value" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Missing Required Value" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Invalid Input Pattern" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$7</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -418,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,163 +426,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>Dataset ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TWIMS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DTIMS</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sublimator</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SLIM</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TIMS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chromium Controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FAIMS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Custom</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Visium CytAssist</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SunCollect Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>M3+ Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Discovery Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ST5020 Multistainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Chromium iX</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Chromium Connect</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M5 Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TM-Sprayer</t>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Current Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>New Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dataset URL</t>
         </is>
       </c>
     </row>
@@ -595,175 +456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dataset ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Field Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Current Value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>New Value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Dataset URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM524.VXVH.562</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM524.VXVH.562</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM524.VXVH.562</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM524.VXVH.562</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM697.PXDS.833</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM697.PXDS.833</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM697.PXDS.833</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM697.PXDS.833</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM958.SHCP.655</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.SHCP.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM958.SHCP.655</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.SHCP.655</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E7"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D4 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D5 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$19</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -804,7 +496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
